--- a/src/main/resources/61-microservice-recruit-master/pf-push_structure.xlsx
+++ b/src/main/resources/61-microservice-recruit-master/pf-push_structure.xlsx
@@ -145,7 +145,7 @@
     <t>org.springframework.cache.interceptor.CacheResolver</t>
   </si>
   <si>
-    <t>container(org.springframework.data.redis.connection.RedisConnectionFactory)</t>
+    <t>container(org.springframework.data.redis.connection.RedisConnectionFactory,org.springframework.data.redis.listener.adapter.MessageListenerAdapter)</t>
   </si>
   <si>
     <t>default</t>
@@ -235,7 +235,7 @@
     <t>javax.websocket.Session</t>
   </si>
   <si>
-    <t>onOpen(javax.websocket.Session)</t>
+    <t>onOpen(javax.websocket.Session,java.lang.Long)</t>
   </si>
   <si>
     <t>onClose()</t>
